--- a/biology/Mycologie/Lyophyllum_decastes/Lyophyllum_decastes.xlsx
+++ b/biology/Mycologie/Lyophyllum_decastes/Lyophyllum_decastes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Tricholome agrégé ou Lyophylle en touffe (Lyophyllum decastes, autrefois L. aggregatum, de son nom latin) est une espèce de champignons basidiomycètes comestibles du genre Lyophyllum dans la famille des Lyophyllaceae. Il est considéré comme un bon comestible en Europe et un des trois meilleurs comestibles dans la gastronomie japonaise, sous le nom traditionnel de shimeji, à présent « Hataké-shimédji » (ハタケシメジ : « Shimeji des champs ».
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nom binomial actuel
-Lyophyllum decastes (Fr.) Singer, (1951) [1949]
-Synonymes
-Agaricus aggregatus Schaeffer (1774), Fungorum qui in Bavaria et Palatinatu circa Ratisbonam, 4, p. 72, tab. 305-306 
+          <t>Nom binomial actuel</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lyophyllum decastes (Fr.) Singer, (1951) 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lyophyllum_decastes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lyophyllum_decastes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Agaricus aggregatus Schaeffer (1774), Fungorum qui in Bavaria et Palatinatu circa Ratisbonam, 4, p. 72, tab. 305-306 
 Agaricus decastes Fries (1818), Observationes mycologicae praecipue ad illustrandam floram suecicam, 2, p. 105 (Basionyme) Sanctionnement : Fries (1821) 
 Agaricus plicatus Persoon (1828), Mycologia europaea, seu complet omnium fungorum in variis europaeae regionibus detectorum enumeratio, 3, p. 78 (nom. illegit.) 
 Clitocybe decastes (Fries) P. Kummer (1871), Der Führer in die Pilzkunde, p. 124 
@@ -535,36 +587,38 @@
 Tricholoma decastes (Fries) Sartory &amp; L. Maire (1918), Synopsis du Genre Tricholoma, p. 73 
 Tricholoma parvum (Fries) Sartory &amp; L. Maire (1918), Synopsis du Genre Tricholoma, p. 60 
 Lyophyllum aggregatum (Schaeffer) Kühner (1938), Bulletin mensuel de la Société linnéenne de Lyon, 7, p. 211 
-Lyophyllum decastes  (Fries) Singer (1951) [1949], Lilloa, 22, p. 165 (nom actuel)
+Lyophyllum decastes  (Fries) Singer (1951) , Lilloa, 22, p. 165 (nom actuel)
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Lyophyllum_decastes</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lyophyllum_decastes</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Description du sporophore</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chapeau
 de 6 à 15 cm, parfois jusqu'à 20 cm, hémisphérique s'étalant de manière irrégulière, à marge enroulée et ondulée
@@ -580,37 +634,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lyophyllum_decastes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Lyophyllum_decastes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Habitat</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Récolte depuis la fin de l'été à l'automne ; lisières, clairières et bords de chemins de feuillus, surtout de peupliers, mais aussi sous les conifères.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -632,10 +655,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Récolte depuis la fin de l'été à l'automne ; lisières, clairières et bords de chemins de feuillus, surtout de peupliers, mais aussi sous les conifères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lyophyllum_decastes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lyophyllum_decastes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Confusions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu probable, surtout lorsque les gros spécimens abritent les petits sous leur chapeau.
 Sur les autres projets Wikimedia :
